--- a/UndergradHomework/HW5/HW5.xlsx
+++ b/UndergradHomework/HW5/HW5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -853,9 +853,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -877,12 +877,6 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -941,7 +935,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2020,7 +2014,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2129,7 +2122,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2398,13 +2390,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3640.2914575768582</c:v>
+                  <c:v>3640</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3928.4090806162731</c:v>
+                  <c:v>3928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4216.5267036556879</c:v>
+                  <c:v>4217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,13 +2463,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4279.1954840940098</c:v>
+                  <c:v>4279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4567.3131071334246</c:v>
+                  <c:v>4567</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4855.4307301728395</c:v>
+                  <c:v>4855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,13 +3027,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4279.1954840940098</c:v>
+                  <c:v>4279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4567.3131071334246</c:v>
+                  <c:v>4567</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4855.4307301728395</c:v>
+                  <c:v>4855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,13 +3100,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3531.868131868132</c:v>
+                  <c:v>3532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2970.3324175824177</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2408.7967032967031</c:v>
+                  <c:v>2409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3599,13 +3591,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25.550308312943624</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.086194561833601</c:v>
+                  <c:v>28.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.622080810723578</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3672,13 +3664,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.165617494830634</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.316812925607621</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.468008356384608</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,13 +3737,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37.695999999999998</c:v>
+                  <c:v>37.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.543999999999997</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.391999999999999</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,13 +4248,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.165617494830634</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.316812925607621</c:v>
+                  <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.468008356384608</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,13 +4321,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51.455197324414712</c:v>
+                  <c:v>37.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.149351170568558</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.843505016722411</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9239,7 +9231,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9551,16 +9543,16 @@
         <v>39</v>
       </c>
       <c r="B21" s="4">
-        <f>B2+((B13+B12)-((2*(B13-B12))*COS(RADIANS(180-B20)))-B15)/(1+B17)</f>
-        <v>3640.2914575768582</v>
+        <f>ROUND(B2+((B13+B12)-((2*(B13-B12))*COS(RADIANS(180-B20)))-B15)/(1+B17),0)</f>
+        <v>3640</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:D21" si="6">C2+((C13+C12)-((2*(C13-C12))*COS(RADIANS(180-C20)))-C15)/(1+C17)</f>
-        <v>3928.4090806162731</v>
+        <f t="shared" ref="C21:D21" si="6">ROUND(C2+((C13+C12)-((2*(C13-C12))*COS(RADIANS(180-C20)))-C15)/(1+C17),0)</f>
+        <v>3928</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="6"/>
-        <v>4216.5267036556879</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9568,16 +9560,16 @@
         <v>40</v>
       </c>
       <c r="B22" s="4">
-        <f>B2+((3*B13)-B12-B15)/(1+B17)</f>
-        <v>4279.1954840940098</v>
+        <f>ROUND(B2+((3*B13)-B12-B15)/(1+B17),0)</f>
+        <v>4279</v>
       </c>
       <c r="C22" s="4">
-        <f>C2+((3*C13)-C12-C15)/(1+C17)</f>
-        <v>4567.3131071334246</v>
+        <f t="shared" ref="C22:D22" si="7">ROUND(C2+((3*C13)-C12-C15)/(1+C17),0)</f>
+        <v>4567</v>
       </c>
       <c r="D22" s="4">
-        <f>D2+((3*D13)-D12-D15)/(1+D17)</f>
-        <v>4855.4307301728395</v>
+        <f t="shared" si="7"/>
+        <v>4855</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9585,15 +9577,15 @@
         <v>41</v>
       </c>
       <c r="B23" s="2">
-        <f>B2+(3*B12)-B13+B18</f>
+        <f>ROUND(B2+(3*B12)-B13+B18,0)</f>
         <v>4320</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23:D23" si="7">C2+(3*C12)-C13+C18</f>
+        <f t="shared" ref="C23:D23" si="8">ROUND(C2+(3*C12)-C13+C18,0)</f>
         <v>3761</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3202</v>
       </c>
     </row>
@@ -9602,16 +9594,16 @@
         <v>32</v>
       </c>
       <c r="B24" s="9">
-        <f>B21/0.052/B4</f>
-        <v>10.000800707628732</v>
+        <f>ROUND(B21/0.052/B$4,1)</f>
+        <v>10</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" ref="C24:D24" si="8">C21/0.052/C4</f>
-        <v>10.792332639055697</v>
+        <f t="shared" ref="C24:D24" si="9">ROUND(C21/0.052/C$4,1)</f>
+        <v>10.8</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="8"/>
-        <v>11.583864570482659</v>
+        <f t="shared" si="9"/>
+        <v>11.6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9619,16 +9611,16 @@
         <v>33</v>
       </c>
       <c r="B25" s="9">
-        <f>B22/0.052/B4</f>
-        <v>11.756031549708817</v>
+        <f t="shared" ref="B25:D26" si="10">ROUND(B22/0.052/B$4,1)</f>
+        <v>11.8</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" ref="C25:D25" si="9">C22/0.052/C4</f>
-        <v>12.547563481135782</v>
+        <f t="shared" si="10"/>
+        <v>12.5</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="9"/>
-        <v>13.339095412562747</v>
+        <f t="shared" si="10"/>
+        <v>13.3</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9636,16 +9628,16 @@
         <v>34</v>
       </c>
       <c r="B26" s="9">
-        <f>B23/0.052/B4</f>
-        <v>11.868131868131869</v>
+        <f t="shared" si="10"/>
+        <v>11.9</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26:D26" si="10">C23/0.052/C4</f>
-        <v>10.332417582417582</v>
+        <f t="shared" si="10"/>
+        <v>10.3</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="10"/>
-        <v>8.7967032967032974</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -9681,16 +9673,16 @@
         <v>39</v>
       </c>
       <c r="B29" s="4">
-        <f>B2+((B13+B12)-((2*(B13-B12))*COS(RADIANS(180-B28)))-B15)/(1+B17)</f>
-        <v>4279.1954840940098</v>
+        <f>ROUND(B2+((B13+B12)-((2*(B13-B12))*COS(RADIANS(180-B28)))-B15)/(1+B17),0)</f>
+        <v>4279</v>
       </c>
       <c r="C29" s="4">
-        <f>C2+((C13+C12)-((2*(C13-C12))*COS(RADIANS(180-C28)))-C15)/(1+C17)</f>
-        <v>4567.3131071334246</v>
+        <f t="shared" ref="C29:D29" si="11">ROUND(C2+((C13+C12)-((2*(C13-C12))*COS(RADIANS(180-C28)))-C15)/(1+C17),0)</f>
+        <v>4567</v>
       </c>
       <c r="D29" s="4">
-        <f>D2+((D13+D12)-((2*(D13-D12))*COS(RADIANS(180-D28)))-D15)/(1+D17)</f>
-        <v>4855.4307301728395</v>
+        <f t="shared" si="11"/>
+        <v>4855</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9698,16 +9690,16 @@
         <v>40</v>
       </c>
       <c r="B30" s="4">
-        <f>B2+((3*B13)-B12-B15)/(1+B17)</f>
-        <v>4279.1954840940098</v>
+        <f>ROUND(B2+((3*B13)-B12-B15)/(1+B17),0)</f>
+        <v>4279</v>
       </c>
       <c r="C30" s="4">
-        <f>C2+((3*C13)-C12-C15)/(1+C17)</f>
-        <v>4567.3131071334246</v>
+        <f t="shared" ref="C30:D30" si="12">ROUND(C2+((3*C13)-C12-C15)/(1+C17),0)</f>
+        <v>4567</v>
       </c>
       <c r="D30" s="4">
-        <f>D2+((3*D13)-D12-D15)/(1+D17)</f>
-        <v>4855.4307301728395</v>
+        <f t="shared" si="12"/>
+        <v>4855</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9715,16 +9707,16 @@
         <v>41</v>
       </c>
       <c r="B31" s="4">
-        <f>B2+(3*B12)-B13+B26</f>
-        <v>3531.868131868132</v>
+        <f>ROUND(B2+(3*B12)-B13+B26,0)</f>
+        <v>3532</v>
       </c>
       <c r="C31" s="4">
-        <f>C2+(3*C12)-C13+C26</f>
-        <v>2970.3324175824177</v>
+        <f t="shared" ref="C31:D31" si="13">ROUND(C2+(3*C12)-C13+C26,0)</f>
+        <v>2970</v>
       </c>
       <c r="D31" s="4">
-        <f>D2+(3*D12)-D13+D26</f>
-        <v>2408.7967032967031</v>
+        <f t="shared" si="13"/>
+        <v>2409</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9732,16 +9724,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="9">
-        <f>B29/0.052/B4</f>
-        <v>11.756031549708817</v>
+        <f>ROUND(B29/0.052/B$4,1)</f>
+        <v>11.8</v>
       </c>
       <c r="C32" s="9">
-        <f>C29/0.052/C4</f>
-        <v>12.547563481135782</v>
+        <f t="shared" ref="C32:D32" si="14">ROUND(C29/0.052/C$4,1)</f>
+        <v>12.5</v>
       </c>
       <c r="D32" s="9">
-        <f>D29/0.052/D4</f>
-        <v>13.339095412562747</v>
+        <f t="shared" si="14"/>
+        <v>13.3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9749,16 +9741,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="9">
-        <f>B30/0.052/B4</f>
-        <v>11.756031549708817</v>
+        <f t="shared" ref="B33:D33" si="15">ROUND(B30/0.052/B$4,1)</f>
+        <v>11.8</v>
       </c>
       <c r="C33" s="9">
-        <f>C30/0.052/C4</f>
-        <v>12.547563481135782</v>
+        <f t="shared" si="15"/>
+        <v>12.5</v>
       </c>
       <c r="D33" s="9">
-        <f>D30/0.052/D4</f>
-        <v>13.339095412562747</v>
+        <f t="shared" si="15"/>
+        <v>13.3</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9766,16 +9758,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="9">
-        <f>B31/0.052/B4</f>
-        <v>9.7029344282091543</v>
+        <f t="shared" ref="B34:D34" si="16">ROUND(B31/0.052/B$4,1)</f>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C34" s="9">
-        <f>C31/0.052/C4</f>
-        <v>8.1602538944571918</v>
+        <f t="shared" si="16"/>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D34" s="9">
-        <f>D31/0.052/D4</f>
-        <v>6.6175733607052285</v>
+        <f t="shared" si="16"/>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -9790,7 +9782,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9871,22 +9863,22 @@
         <v>70</v>
       </c>
       <c r="C2" s="6">
-        <v>3640.2914575768582</v>
+        <v>3640</v>
       </c>
       <c r="D2" s="6">
-        <v>4279.1954840940098</v>
+        <v>4279</v>
       </c>
       <c r="E2" s="6">
         <v>4320</v>
       </c>
       <c r="F2" s="2">
-        <v>10.000800707628732</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5">
-        <v>11.756031549708817</v>
+        <v>11.8</v>
       </c>
       <c r="H2" s="5">
-        <v>11.868131868131869</v>
+        <v>11.9</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>14</v>
@@ -9895,22 +9887,22 @@
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <v>4279.1954840940098</v>
+        <v>4279</v>
       </c>
       <c r="L2" s="6">
-        <v>4279.1954840940098</v>
+        <v>4279</v>
       </c>
       <c r="M2" s="6">
-        <v>3531.868131868132</v>
+        <v>3532</v>
       </c>
       <c r="N2" s="5">
-        <v>11.756031549708817</v>
+        <v>11.8</v>
       </c>
       <c r="O2" s="5">
-        <v>11.756031549708817</v>
+        <v>11.8</v>
       </c>
       <c r="P2" s="5">
-        <v>9.7029344282091543</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -9921,22 +9913,22 @@
         <v>70</v>
       </c>
       <c r="C3" s="6">
-        <v>3928.4090806162731</v>
+        <v>3928</v>
       </c>
       <c r="D3" s="6">
-        <v>4567.3131071334246</v>
+        <v>4567</v>
       </c>
       <c r="E3" s="6">
         <v>3761</v>
       </c>
       <c r="F3" s="2">
-        <v>10.792332639055697</v>
+        <v>10.8</v>
       </c>
       <c r="G3" s="5">
-        <v>12.547563481135782</v>
+        <v>12.5</v>
       </c>
       <c r="H3" s="5">
-        <v>10.332417582417582</v>
+        <v>10.3</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
@@ -9945,22 +9937,22 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>4567.3131071334246</v>
+        <v>4567</v>
       </c>
       <c r="L3" s="6">
-        <v>4567.3131071334246</v>
+        <v>4567</v>
       </c>
       <c r="M3" s="6">
-        <v>2970.3324175824177</v>
+        <v>2970</v>
       </c>
       <c r="N3" s="5">
-        <v>12.547563481135782</v>
+        <v>12.5</v>
       </c>
       <c r="O3" s="5">
-        <v>12.547563481135782</v>
+        <v>12.5</v>
       </c>
       <c r="P3" s="5">
-        <v>8.1602538944571918</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -9971,22 +9963,22 @@
         <v>70</v>
       </c>
       <c r="C4" s="6">
-        <v>4216.5267036556879</v>
+        <v>4217</v>
       </c>
       <c r="D4" s="6">
-        <v>4855.4307301728395</v>
+        <v>4855</v>
       </c>
       <c r="E4" s="6">
         <v>3202</v>
       </c>
       <c r="F4" s="2">
-        <v>11.583864570482659</v>
+        <v>11.6</v>
       </c>
       <c r="G4" s="5">
-        <v>13.339095412562747</v>
+        <v>13.3</v>
       </c>
       <c r="H4" s="5">
-        <v>8.7967032967032974</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>14</v>
@@ -9995,22 +9987,22 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>4855.4307301728395</v>
+        <v>4855</v>
       </c>
       <c r="L4" s="6">
-        <v>4855.4307301728395</v>
+        <v>4855</v>
       </c>
       <c r="M4" s="6">
-        <v>2408.7967032967031</v>
+        <v>2409</v>
       </c>
       <c r="N4" s="5">
-        <v>13.339095412562747</v>
+        <v>13.3</v>
       </c>
       <c r="O4" s="5">
-        <v>13.339095412562747</v>
+        <v>13.3</v>
       </c>
       <c r="P4" s="5">
-        <v>6.6175733607052285</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -10031,7 +10023,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10360,16 +10352,16 @@
         <v>29</v>
       </c>
       <c r="B22" s="9">
-        <f>B2+((B14+B13)-((2*(B14-B13))*COS(RADIANS(180-B21)))-B16)/(1+B18)</f>
-        <v>25.550308312943624</v>
+        <f>ROUND(B2+((B14+B13)-((2*(B14-B13))*COS(RADIANS(180-B21)))-B16)/(1+B18),1)</f>
+        <v>25.6</v>
       </c>
       <c r="C22" s="9">
-        <f>C2+((C14+C13)-((2*(C14-C13))*COS(RADIANS(180-C21)))-C16)/(1+C18)</f>
-        <v>28.086194561833601</v>
+        <f t="shared" ref="C22:D22" si="4">ROUND(C2+((C14+C13)-((2*(C14-C13))*COS(RADIANS(180-C21)))-C16)/(1+C18),1)</f>
+        <v>28.1</v>
       </c>
       <c r="D22" s="9">
-        <f>D2+((D14+D13)-((2*(D14-D13))*COS(RADIANS(180-D21)))-D16)/(1+D18)</f>
-        <v>30.622080810723578</v>
+        <f t="shared" si="4"/>
+        <v>30.6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10377,16 +10369,16 @@
         <v>30</v>
       </c>
       <c r="B23" s="9">
-        <f>B2+((3*B14)-B13-B16)/(1+B18)</f>
-        <v>26.165617494830634</v>
+        <f>ROUND(B2+((3*B14)-B13-B16)/(1+B18),1)</f>
+        <v>26.2</v>
       </c>
       <c r="C23" s="9">
-        <f>C2+((3*C14)-C13-C16)/(1+C18)</f>
-        <v>29.316812925607621</v>
+        <f t="shared" ref="C23:D23" si="5">ROUND(C2+((3*C14)-C13-C16)/(1+C18),1)</f>
+        <v>29.3</v>
       </c>
       <c r="D23" s="9">
-        <f>D2+((3*D14)-D13-D16)/(1+D18)</f>
-        <v>32.468008356384608</v>
+        <f t="shared" si="5"/>
+        <v>32.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10394,16 +10386,16 @@
         <v>31</v>
       </c>
       <c r="B24" s="9">
-        <f>B2+(3*B13)-B14+B19</f>
-        <v>37.695999999999998</v>
+        <f>ROUND(B2+(3*B13)-B14+B19,1)</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="C24" s="9">
-        <f>C2+(3*C13)-C14+C19</f>
-        <v>32.543999999999997</v>
+        <f t="shared" ref="C24:D24" si="6">ROUND(C2+(3*C13)-C14+C19,1)</f>
+        <v>32.5</v>
       </c>
       <c r="D24" s="9">
-        <f>D2+(3*D13)-D14+D19</f>
-        <v>27.391999999999999</v>
+        <f t="shared" si="6"/>
+        <v>27.4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10411,16 +10403,16 @@
         <v>32</v>
       </c>
       <c r="B25" s="9">
-        <f>B22/0.052/23/B4</f>
-        <v>10.681567020461381</v>
+        <f>ROUND(B22/0.052/23/B$4,1)</f>
+        <v>10.7</v>
       </c>
       <c r="C25" s="9">
-        <f>C22/0.052/23/C4</f>
-        <v>11.741720134545821</v>
+        <f t="shared" ref="C25:D25" si="7">ROUND(C22/0.052/23/C$4,1)</f>
+        <v>11.7</v>
       </c>
       <c r="D25" s="9">
-        <f>D22/0.052/23/D4</f>
-        <v>12.801873248630258</v>
+        <f t="shared" si="7"/>
+        <v>12.8</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10428,16 +10420,16 @@
         <v>33</v>
       </c>
       <c r="B26" s="9">
-        <f>B23/0.052/23/B4</f>
-        <v>10.938803300514481</v>
+        <f t="shared" ref="B26:D26" si="8">ROUND(B23/0.052/23/B$4,1)</f>
+        <v>11</v>
       </c>
       <c r="C26" s="9">
-        <f>C23/0.052/23/C4</f>
-        <v>12.256192694652016</v>
+        <f t="shared" si="8"/>
+        <v>12.2</v>
       </c>
       <c r="D26" s="9">
-        <f>D23/0.052/23/D4</f>
-        <v>13.573582088789554</v>
+        <f t="shared" si="8"/>
+        <v>13.6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10445,16 +10437,16 @@
         <v>34</v>
       </c>
       <c r="B27" s="9">
-        <f>B24/0.052/23/B4</f>
-        <v>15.759197324414716</v>
+        <f t="shared" ref="B27:D27" si="9">ROUND(B24/0.052/23/B$4,1)</f>
+        <v>15.8</v>
       </c>
       <c r="C27" s="9">
-        <f>C24/0.052/23/C4</f>
-        <v>13.605351170568561</v>
+        <f t="shared" si="9"/>
+        <v>13.6</v>
       </c>
       <c r="D27" s="9">
-        <f>D24/0.052/23/D4</f>
-        <v>11.451505016722409</v>
+        <f t="shared" si="9"/>
+        <v>11.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -10490,16 +10482,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="9">
-        <f>B2+((B14+B13)-((2*(B14-B13))*COS(RADIANS(180-B29)))-B16)/(1+B18)</f>
-        <v>26.165617494830634</v>
+        <f>ROUND(B2+((B14+B13)-((2*(B14-B13))*COS(RADIANS(180-B29)))-B16)/(1+B18),1)</f>
+        <v>26.2</v>
       </c>
       <c r="C30" s="9">
-        <f>C2+((C14+C13)-((2*(C14-C13))*COS(RADIANS(180-C29)))-C16)/(1+C18)</f>
-        <v>29.316812925607621</v>
+        <f t="shared" ref="C30:D30" si="10">ROUND(C2+((C14+C13)-((2*(C14-C13))*COS(RADIANS(180-C29)))-C16)/(1+C18),1)</f>
+        <v>29.3</v>
       </c>
       <c r="D30" s="9">
-        <f>D2+((D14+D13)-((2*(D14-D13))*COS(RADIANS(180-D29)))-D16)/(1+D18)</f>
-        <v>32.468008356384608</v>
+        <f t="shared" si="10"/>
+        <v>32.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10507,16 +10499,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="9">
-        <f>B2+((3*B14)-B13-B16)/(1+B18)</f>
-        <v>26.165617494830634</v>
+        <f>ROUND(B2+((3*B14)-B13-B16)/(1+B18),1)</f>
+        <v>26.2</v>
       </c>
       <c r="C31" s="9">
-        <f>C2+((3*C14)-C13-C16)/(1+C18)</f>
-        <v>29.316812925607621</v>
+        <f t="shared" ref="C31:D31" si="11">ROUND(C2+((3*C14)-C13-C16)/(1+C18),1)</f>
+        <v>29.3</v>
       </c>
       <c r="D31" s="9">
-        <f>D2+((3*D14)-D13-D16)/(1+D18)</f>
-        <v>32.468008356384608</v>
+        <f t="shared" si="11"/>
+        <v>32.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10524,16 +10516,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="9">
-        <f>B2+(3*B13)-B14+B27</f>
-        <v>51.455197324414712</v>
+        <f>ROUND(B2+(3*B13)-B14+B19,1)</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="C32" s="9">
-        <f>C2+(3*C13)-C14+C27</f>
-        <v>44.149351170568558</v>
+        <f t="shared" ref="C32:D32" si="12">ROUND(C2+(3*C13)-C14+C19,1)</f>
+        <v>32.5</v>
       </c>
       <c r="D32" s="9">
-        <f>D2+(3*D13)-D14+D27</f>
-        <v>36.843505016722411</v>
+        <f t="shared" si="12"/>
+        <v>27.4</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10541,16 +10533,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="9">
-        <f>B30/0.052/23/B4</f>
-        <v>10.938803300514481</v>
+        <f>ROUND(B30/0.052/23/B$4,1)</f>
+        <v>11</v>
       </c>
       <c r="C33" s="9">
-        <f>C30/0.052/23/C4</f>
-        <v>12.256192694652016</v>
+        <f t="shared" ref="C33:D33" si="13">ROUND(C30/0.052/23/C$4,1)</f>
+        <v>12.2</v>
       </c>
       <c r="D33" s="9">
-        <f>D30/0.052/23/D4</f>
-        <v>13.573582088789554</v>
+        <f t="shared" si="13"/>
+        <v>13.6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10558,16 +10550,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="9">
-        <f>B31/0.052/23/B4</f>
-        <v>10.938803300514481</v>
+        <f t="shared" ref="B34:D35" si="14">ROUND(B31/0.052/23/B$4,1)</f>
+        <v>11</v>
       </c>
       <c r="C34" s="9">
-        <f>C31/0.052/23/C4</f>
-        <v>12.256192694652016</v>
+        <f t="shared" si="14"/>
+        <v>12.2</v>
       </c>
       <c r="D34" s="9">
-        <f>D31/0.052/23/D4</f>
-        <v>13.573582088789554</v>
+        <f t="shared" si="14"/>
+        <v>13.6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10575,16 +10567,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="9">
-        <f>B32/0.052/23/B4</f>
-        <v>21.511370118902473</v>
+        <f t="shared" si="14"/>
+        <v>15.8</v>
       </c>
       <c r="C35" s="9">
-        <f>C32/0.052/23/C4</f>
-        <v>18.457086609769465</v>
+        <f t="shared" si="14"/>
+        <v>13.6</v>
       </c>
       <c r="D35" s="9">
-        <f>D32/0.052/23/D4</f>
-        <v>15.40280310063646</v>
+        <f t="shared" si="14"/>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
@@ -10599,7 +10591,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10686,22 +10678,22 @@
         <v>45</v>
       </c>
       <c r="D2" s="6">
-        <v>25.550308312943624</v>
+        <v>25.6</v>
       </c>
       <c r="E2" s="6">
-        <v>26.165617494830634</v>
+        <v>26.2</v>
       </c>
       <c r="F2" s="6">
-        <v>37.695999999999998</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="G2" s="2">
-        <v>10.681567020461381</v>
+        <v>10.7</v>
       </c>
       <c r="H2" s="5">
-        <v>10.938803300514481</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5">
-        <v>15.759197324414716</v>
+        <v>15.8</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>14</v>
@@ -10710,22 +10702,22 @@
         <v>0</v>
       </c>
       <c r="L2" s="6">
-        <v>26.165617494830634</v>
+        <v>26.2</v>
       </c>
       <c r="M2" s="6">
-        <v>26.165617494830634</v>
+        <v>26.2</v>
       </c>
       <c r="N2" s="6">
-        <v>51.455197324414712</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="O2" s="5">
-        <v>10.938803300514481</v>
+        <v>11</v>
       </c>
       <c r="P2" s="5">
-        <v>10.938803300514481</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="5">
-        <v>21.511370118902473</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -10739,22 +10731,22 @@
         <v>45</v>
       </c>
       <c r="D3" s="6">
-        <v>28.086194561833601</v>
+        <v>28.1</v>
       </c>
       <c r="E3" s="6">
-        <v>29.316812925607621</v>
+        <v>29.3</v>
       </c>
       <c r="F3" s="6">
-        <v>32.543999999999997</v>
+        <v>32.5</v>
       </c>
       <c r="G3" s="2">
-        <v>11.741720134545821</v>
+        <v>11.7</v>
       </c>
       <c r="H3" s="5">
-        <v>12.256192694652016</v>
+        <v>12.2</v>
       </c>
       <c r="I3" s="5">
-        <v>13.605351170568561</v>
+        <v>13.6</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>14</v>
@@ -10763,22 +10755,22 @@
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <v>29.316812925607621</v>
+        <v>29.3</v>
       </c>
       <c r="M3" s="6">
-        <v>29.316812925607621</v>
+        <v>29.3</v>
       </c>
       <c r="N3" s="6">
-        <v>44.149351170568558</v>
+        <v>32.5</v>
       </c>
       <c r="O3" s="5">
-        <v>12.256192694652016</v>
+        <v>12.2</v>
       </c>
       <c r="P3" s="5">
-        <v>12.256192694652016</v>
+        <v>12.2</v>
       </c>
       <c r="Q3" s="5">
-        <v>18.457086609769465</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -10792,22 +10784,22 @@
         <v>45</v>
       </c>
       <c r="D4" s="6">
-        <v>30.622080810723578</v>
+        <v>30.6</v>
       </c>
       <c r="E4" s="6">
-        <v>32.468008356384608</v>
+        <v>32.5</v>
       </c>
       <c r="F4" s="6">
-        <v>27.391999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="G4" s="2">
-        <v>12.801873248630258</v>
+        <v>12.8</v>
       </c>
       <c r="H4" s="5">
-        <v>13.573582088789554</v>
+        <v>13.6</v>
       </c>
       <c r="I4" s="5">
-        <v>11.451505016722409</v>
+        <v>11.5</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>14</v>
@@ -10816,22 +10808,22 @@
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <v>32.468008356384608</v>
+        <v>32.5</v>
       </c>
       <c r="M4" s="6">
-        <v>32.468008356384608</v>
+        <v>32.5</v>
       </c>
       <c r="N4" s="6">
-        <v>36.843505016722411</v>
+        <v>27.4</v>
       </c>
       <c r="O4" s="5">
-        <v>13.573582088789554</v>
+        <v>13.6</v>
       </c>
       <c r="P4" s="5">
-        <v>13.573582088789554</v>
+        <v>13.6</v>
       </c>
       <c r="Q4" s="5">
-        <v>15.40280310063646</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -10852,7 +10844,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11044,8 +11036,8 @@
         <v>29</v>
       </c>
       <c r="B21" s="9">
-        <f>B2+((B14+B13)-((2*(B14-B13))*COS(RADIANS(180-B20)))-B16)/(1+B17)</f>
-        <v>25.676811344856919</v>
+        <f>ROUND(B2+((B14+B13)-((2*(B14-B13))*COS(RADIANS(180-B20)))-B16)/(1+B17),1)</f>
+        <v>25.7</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -11055,8 +11047,8 @@
         <v>30</v>
       </c>
       <c r="B22" s="9">
-        <f>B2+((3*B14)-B13-B16)/(1+B17)</f>
-        <v>26.601873571428573</v>
+        <f>ROUND(B2+((3*B14)-B13-B16)/(1+B17),1)</f>
+        <v>26.6</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -11066,8 +11058,8 @@
         <v>31</v>
       </c>
       <c r="B23" s="9">
-        <f>B2+(3*B13)-B14+B18</f>
-        <v>29.872527000000005</v>
+        <f>ROUND(B2+(3*B13)-B14+B18,1)</f>
+        <v>29.9</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -11077,8 +11069,8 @@
         <v>32</v>
       </c>
       <c r="B24" s="9">
-        <f>B21/0.052/23/B4</f>
-        <v>10.734452903368277</v>
+        <f>ROUND(B21/0.052/23/B$4,1)</f>
+        <v>10.7</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -11088,8 +11080,8 @@
         <v>33</v>
       </c>
       <c r="B25" s="9">
-        <f>B22/0.052/23/B4</f>
-        <v>11.121184603440041</v>
+        <f t="shared" ref="B25:B26" si="0">ROUND(B22/0.052/23/B$4,1)</f>
+        <v>11.1</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -11099,8 +11091,8 @@
         <v>34</v>
       </c>
       <c r="B26" s="9">
-        <f>B23/0.052/23/B4</f>
-        <v>12.488514632107027</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -11126,8 +11118,8 @@
         <v>29</v>
       </c>
       <c r="B29" s="9">
-        <f>B2+((B14+B13)-((2*(B14-B13))*COS(RADIANS(180-B28)))-B16)/(1+B17)</f>
-        <v>26.601873571428573</v>
+        <f>ROUND(B2+((B14+B13)-((2*(B14-B13))*COS(RADIANS(180-B28)))-B16)/(1+B17),1)</f>
+        <v>26.6</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -11137,8 +11129,8 @@
         <v>30</v>
       </c>
       <c r="B30" s="9">
-        <f>B2+((3*B14)-B13-B16)/(1+B17)</f>
-        <v>26.601873571428573</v>
+        <f>ROUND(B2+((3*B14)-B13-B16)/(1+B17),1)</f>
+        <v>26.6</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -11148,8 +11140,8 @@
         <v>31</v>
       </c>
       <c r="B31" s="9">
-        <f>B2+(3*B13)-B14+B26</f>
-        <v>40.361041632107032</v>
+        <f>ROUND(B2+(3*B13)-B14+B18,1)</f>
+        <v>29.9</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -11159,8 +11151,8 @@
         <v>32</v>
       </c>
       <c r="B32" s="9">
-        <f>B29/0.052/23/B4</f>
-        <v>11.121184603440041</v>
+        <f>ROUND(B29/0.052/23/B$4,1)</f>
+        <v>11.1</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -11170,8 +11162,8 @@
         <v>33</v>
       </c>
       <c r="B33" s="9">
-        <f>B30/0.052/23/B4</f>
-        <v>11.121184603440041</v>
+        <f t="shared" ref="B33:B34" si="1">ROUND(B30/0.052/23/B$4,1)</f>
+        <v>11.1</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -11181,8 +11173,8 @@
         <v>34</v>
       </c>
       <c r="B34" s="9">
-        <f>B31/0.052/23/B4</f>
-        <v>16.873345163924345</v>
+        <f t="shared" si="1"/>
+        <v>12.5</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -11198,8 +11190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11248,22 +11240,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>26.601873571428573</v>
+        <v>26.6</v>
       </c>
       <c r="C2" s="5">
-        <v>26.601873571428573</v>
+        <v>26.6</v>
       </c>
       <c r="D2" s="5">
-        <v>40.361041632107032</v>
+        <v>29.9</v>
       </c>
       <c r="E2" s="5">
-        <v>11.121184603440041</v>
+        <v>11.1</v>
       </c>
       <c r="F2" s="5">
-        <v>11.121184603440041</v>
+        <v>11.1</v>
       </c>
       <c r="G2" s="5">
-        <v>16.873345163924345</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -11272,22 +11264,22 @@
         <v>45</v>
       </c>
       <c r="B3" s="5">
-        <v>25.676811344856919</v>
+        <v>25.7</v>
       </c>
       <c r="C3" s="5">
-        <v>26.601873571428573</v>
+        <v>26.6</v>
       </c>
       <c r="D3" s="5">
-        <v>29.872527000000005</v>
+        <v>29.9</v>
       </c>
       <c r="E3" s="5">
-        <v>10.734452903368277</v>
+        <v>10.7</v>
       </c>
       <c r="F3" s="5">
-        <v>11.121184603440041</v>
+        <v>11.1</v>
       </c>
       <c r="G3" s="5">
-        <v>12.488514632107027</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -11300,7 +11292,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11480,8 +11472,8 @@
         <v>39</v>
       </c>
       <c r="B21" s="4">
-        <f>B2+((B11+B12)-((2*(B11-B12))*COS(RADIANS(180-B20)))-B15)/(1+B17)</f>
-        <v>4537.9572490807404</v>
+        <f>ROUND(B2+((B11+B12)-((2*(B11-B12))*COS(RADIANS(180-B20)))-B15)/(1+B17),0)</f>
+        <v>4538</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11489,8 +11481,8 @@
         <v>40</v>
       </c>
       <c r="B22" s="4">
-        <f>B2+((3*B11)-B12-B15)/(1+B17)</f>
-        <v>4602.2970773009192</v>
+        <f>ROUND(B2+((3*B11)-B12-B15)/(1+B17),0)</f>
+        <v>4602</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11498,7 +11490,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="2">
-        <f>B2+(3*B12)-B11+B18</f>
+        <f>ROUND(B2+(3*B12)-B11+B18,0)</f>
         <v>8950</v>
       </c>
     </row>
@@ -11507,8 +11499,8 @@
         <v>32</v>
       </c>
       <c r="B24" s="9">
-        <f>B21/0.052/B4</f>
-        <v>10.908551079521011</v>
+        <f>ROUND(B21/0.052/B$4,1)</f>
+        <v>10.9</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11516,8 +11508,8 @@
         <v>33</v>
       </c>
       <c r="B25" s="9">
-        <f>B22/0.052/B4</f>
-        <v>11.063214128127211</v>
+        <f t="shared" ref="B25:B26" si="0">ROUND(B22/0.052/B$4,1)</f>
+        <v>11.1</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11525,8 +11517,8 @@
         <v>34</v>
       </c>
       <c r="B26" s="9">
-        <f>B23/0.052/B4</f>
-        <v>21.514423076923077</v>
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11550,8 +11542,8 @@
         <v>39</v>
       </c>
       <c r="B29" s="4">
-        <f>B2+((B13+B11)-((2*(B13-B11))*COS(RADIANS(180-B28)))-B15)/(1+B17)</f>
-        <v>5252.6019100214135</v>
+        <f>ROUND(B2+((B13+B11)-((2*(B13-B11))*COS(RADIANS(180-B28)))-B15)/(1+B17),0)</f>
+        <v>5253</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11559,8 +11551,8 @@
         <v>40</v>
       </c>
       <c r="B30" s="4">
-        <f>B2+((3*B13)-B11-B15)/(1+B17)</f>
-        <v>5437.0427509192596</v>
+        <f>ROUND(B2+((3*B13)-B11-B15)/(1+B17),0)</f>
+        <v>5437</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11568,8 +11560,8 @@
         <v>41</v>
       </c>
       <c r="B31" s="4">
-        <f>B2+(3*B11)-B13+B26</f>
-        <v>9071.5144230769238</v>
+        <f>ROUND(B2+(3*B11)-B13+B18,0)</f>
+        <v>9050</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11577,8 +11569,8 @@
         <v>32</v>
       </c>
       <c r="B32" s="9">
-        <f>B29/0.052/B4</f>
-        <v>12.626446899089936</v>
+        <f>ROUND(B29/0.052/B$4,1)</f>
+        <v>12.6</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11586,8 +11578,8 @@
         <v>33</v>
       </c>
       <c r="B33" s="9">
-        <f>B30/0.052/B4</f>
-        <v>13.069814305094374</v>
+        <f t="shared" ref="B33:B34" si="1">ROUND(B30/0.052/B$4,1)</f>
+        <v>13.1</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -11595,8 +11587,8 @@
         <v>34</v>
       </c>
       <c r="B34" s="9">
-        <f>B31/0.052/B4</f>
-        <v>21.806525055473376</v>
+        <f t="shared" si="1"/>
+        <v>21.8</v>
       </c>
     </row>
   </sheetData>
@@ -11610,8 +11602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11677,22 +11669,22 @@
         <v>45</v>
       </c>
       <c r="E2" s="2">
-        <v>4537.9572490807404</v>
+        <v>4538</v>
       </c>
       <c r="F2" s="2">
-        <v>4602.2970773009192</v>
+        <v>4602</v>
       </c>
       <c r="G2" s="2">
         <v>8950</v>
       </c>
       <c r="H2" s="2">
-        <v>10.908551079521011</v>
+        <v>10.9</v>
       </c>
       <c r="I2" s="2">
-        <v>11.063214128127211</v>
+        <v>11.1</v>
       </c>
       <c r="J2" s="2">
-        <v>21.514423076923077</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -11712,22 +11704,22 @@
         <v>45</v>
       </c>
       <c r="E3" s="2">
-        <v>5252.6019100214135</v>
+        <v>5253</v>
       </c>
       <c r="F3" s="2">
-        <v>5437.0427509192596</v>
+        <v>5437</v>
       </c>
       <c r="G3" s="2">
-        <v>9071.5144230769238</v>
+        <v>9050</v>
       </c>
       <c r="H3" s="2">
-        <v>12.626446899089936</v>
+        <v>12.6</v>
       </c>
       <c r="I3" s="2">
-        <v>13.069814305094374</v>
+        <v>13.1</v>
       </c>
       <c r="J3" s="2">
-        <v>21.806525055473376</v>
+        <v>21.8</v>
       </c>
     </row>
   </sheetData>

--- a/UndergradHomework/HW5/HW5.xlsx
+++ b/UndergradHomework/HW5/HW5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsl2883\Jupyter\Undergrad\HW5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsl2883\Google Drive\Grad School\Teaching\PGE 334 Reservoir Geomechanics\Homework\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -2014,6 +2014,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2122,6 +2123,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3100,13 +3102,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3532</c:v>
+                  <c:v>4320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2970</c:v>
+                  <c:v>3761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2409</c:v>
+                  <c:v>3202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8449,8 +8451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9231,7 +9233,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9707,16 +9709,16 @@
         <v>41</v>
       </c>
       <c r="B31" s="4">
-        <f>ROUND(B2+(3*B12)-B13+B26,0)</f>
-        <v>3532</v>
+        <f>ROUND(B2+(3*B12)-B13+B18,0)</f>
+        <v>4320</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" ref="C31:D31" si="13">ROUND(C2+(3*C12)-C13+C26,0)</f>
-        <v>2970</v>
+        <f t="shared" ref="C31:D31" si="13">ROUND(C2+(3*C12)-C13+C18,0)</f>
+        <v>3761</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="13"/>
-        <v>2409</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -9759,15 +9761,15 @@
       </c>
       <c r="B34" s="9">
         <f t="shared" ref="B34:D34" si="16">ROUND(B31/0.052/B$4,1)</f>
-        <v>9.6999999999999993</v>
+        <v>11.9</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="16"/>
-        <v>8.1999999999999993</v>
+        <v>10.3</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="16"/>
-        <v>6.6</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -9781,8 +9783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9893,7 +9895,7 @@
         <v>4279</v>
       </c>
       <c r="M2" s="6">
-        <v>3532</v>
+        <v>4320</v>
       </c>
       <c r="N2" s="5">
         <v>11.8</v>
@@ -9902,7 +9904,7 @@
         <v>11.8</v>
       </c>
       <c r="P2" s="5">
-        <v>9.6999999999999993</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -9943,7 +9945,7 @@
         <v>4567</v>
       </c>
       <c r="M3" s="6">
-        <v>2970</v>
+        <v>3761</v>
       </c>
       <c r="N3" s="5">
         <v>12.5</v>
@@ -9952,7 +9954,7 @@
         <v>12.5</v>
       </c>
       <c r="P3" s="5">
-        <v>8.1999999999999993</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -9993,7 +9995,7 @@
         <v>4855</v>
       </c>
       <c r="M4" s="6">
-        <v>2409</v>
+        <v>3202</v>
       </c>
       <c r="N4" s="5">
         <v>13.3</v>
@@ -10002,7 +10004,7 @@
         <v>13.3</v>
       </c>
       <c r="P4" s="5">
-        <v>6.6</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -10023,7 +10025,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10844,7 +10846,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11190,7 +11192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
